--- a/biology/Botanique/Malesherbiaceae/Malesherbiaceae.xlsx
+++ b/biology/Botanique/Malesherbiaceae/Malesherbiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malesherbiaceae, les Malesherbiacées, est une petite famille des plantes à fleurs dicotylédones. Elle comprend un seul genre: Malesherbia.
 Ce sont des plantes herbacées, ou semi-ligneuses, souvent très velues, à odeur fétide, que l'on retrouve dans les Andes, en Amérique du Sud, du Pérou jusqu'au Chili.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Malesherbia, nommé par les auteurs de la Flore du Perou de 1794 en hommage à Lamoignon de Malesherbes[1], magistrat, botaniste et homme d’État français.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Malesherbia, nommé par les auteurs de la Flore du Perou de 1794 en hommage à Lamoignon de Malesherbes, magistrat, botaniste et homme d’État français.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[2] situe cette famille et dans l'ordre des Malpighiales. En classification phylogénétique APG II (2003)[3], la famille est optionnelle: ces plantes peuvent être incluses dans la famille Passifloraceae.
-En classification phylogénétique APG III (2009)[4], cette famille est invalide et ses genres sont incorporés dans la famille Passifloraceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998) situe cette famille et dans l'ordre des Malpighiales. En classification phylogénétique APG II (2003), la famille est optionnelle: ces plantes peuvent être incluses dans la famille Passifloraceae.
+En classification phylogénétique APG III (2009), cette famille est invalide et ses genres sont incorporés dans la famille Passifloraceae.
 </t>
         </is>
       </c>
